--- a/biology/Zoologie/Hypocysta_pseudirius/Hypocysta_pseudirius.xlsx
+++ b/biology/Zoologie/Hypocysta_pseudirius/Hypocysta_pseudirius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypocysta pseudirius  est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Satyrinae et du genre Hypocysta.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Hypocysta pseudirius lui a été donné par Butler en 1875.
-Synonymes : Hypocysta epirius Butler, 1875[1].
-Noms vernaculaires
-Hypocysta pseudirius se nomme Dingy Ringlet ou Grey Ringlet en anglais[1].
+Synonymes : Hypocysta epirius Butler, 1875.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est de couleur jaune, chamoisé sur les antérieures et la partie basale des postérieures avec une bordure marron et aux postérieures un gros ocelle pupillé cerclé de jaune limité d'une fine ligne marron.
-Le revers est jaune chamoisé avec des ocelles bien marqués dans la bande submarginale plus claire des postérieures.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypocysta pseudirius se nomme Dingy Ringlet ou Grey Ringlet en anglais.
 </t>
         </is>
       </c>
@@ -574,12 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Chenille</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est verte ou brune[2]
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est de couleur jaune, chamoisé sur les antérieures et la partie basale des postérieures avec une bordure marron et aux postérieures un gros ocelle pupillé cerclé de jaune limité d'une fine ligne marron.
+Le revers est jaune chamoisé avec des ocelles bien marqués dans la bande submarginale plus claire des postérieures.
 </t>
         </is>
       </c>
@@ -605,13 +625,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes seraient des Poacées[2].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est verte ou brune
 </t>
         </is>
       </c>
@@ -637,12 +658,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes seraient des Poacées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hypocysta_pseudirius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypocysta_pseudirius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est endémique dans l'Est de l'Australie. On le trouve surtout en Tasmanie[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est endémique dans l'Est de l'Australie. On le trouve surtout en Tasmanie.
 </t>
         </is>
       </c>
